--- a/data-mapping/2019-09-13_data-mapping.xlsx
+++ b/data-mapping/2019-09-13_data-mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb677/Dropbox/root/Sussex/Projects/2018/Live/2018_AHRC_Making-African-Connections/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01901B4C-4A3E-8742-9E4D-FC0647DD51E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7835DC9-6B7D-AB48-B60E-51EF9793A304}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="800" windowWidth="25600" windowHeight="14180" xr2:uid="{84C9D035-E80A-724E-BCA3-629FBC37D59B}"/>
+    <workbookView xWindow="2000" yWindow="760" windowWidth="35740" windowHeight="14180" xr2:uid="{84C9D035-E80A-724E-BCA3-629FBC37D59B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="111">
   <si>
     <t>DC Title</t>
   </si>
@@ -241,15 +241,9 @@
     <t>BHM</t>
   </si>
   <si>
-    <t>CATALOGUE.ITEMS_SUBJECTS</t>
-  </si>
-  <si>
     <t>CATALOGUE.ITEM_NAME</t>
   </si>
   <si>
-    <t>CATALOGUE.TITLE</t>
-  </si>
-  <si>
     <t>CATALOGUE.MAKER</t>
   </si>
   <si>
@@ -268,9 +262,6 @@
     <t>CATALOGUE.MEASUREMENTS</t>
   </si>
   <si>
-    <t>OTHER_MEASUREMENTS.PART_MEASURED</t>
-  </si>
-  <si>
     <t>CATALOGUE.ID_NUMBER</t>
   </si>
   <si>
@@ -323,12 +314,6 @@
   </si>
   <si>
     <t>Possible alternative descriptions to be used as well.</t>
-  </si>
-  <si>
-    <t>CATALOGUE.NUMBER2</t>
-  </si>
-  <si>
-    <t>CATALOGUE.PHYSTECH_REQUIREMENTS</t>
   </si>
   <si>
     <t>Possible previous number</t>
@@ -831,18 +816,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91AA6C7-A09B-AF41-9D36-45DB9EE5D9DB}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
@@ -852,7 +837,7 @@
     <col min="13" max="13" width="29" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5" customWidth="1"/>
     <col min="15" max="15" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="49.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -956,7 +941,7 @@
         <v>49</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -977,7 +962,7 @@
         <v>48</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
@@ -1005,7 +990,7 @@
         <v>47</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
@@ -1062,32 +1047,32 @@
         <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="D9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>61</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L9" s="18" t="s">
         <v>33</v>
@@ -1097,7 +1082,7 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P9" s="18" t="s">
         <v>65</v>
@@ -1105,39 +1090,33 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>69</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B10" s="20"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="20" t="s">
-        <v>67</v>
-      </c>
+      <c r="D10" s="20"/>
       <c r="E10" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="20" t="s">
-        <v>95</v>
-      </c>
+      <c r="H10" s="20"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="20" t="s">
-        <v>76</v>
+      <c r="J10" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="P10" s="2"/>
     </row>
@@ -1151,15 +1130,13 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1175,12 +1152,10 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="20" t="s">
-        <v>96</v>
-      </c>
+      <c r="J12" s="20"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1189,7 +1164,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1202,7 +1177,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1211,7 +1186,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="H14" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1241,7 +1216,7 @@
         <v>16</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>36</v>
@@ -1262,7 +1237,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>44</v>
@@ -1286,7 +1261,7 @@
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1308,7 +1283,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="12" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -1316,17 +1291,17 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1345,7 +1320,7 @@
     </row>
     <row r="22" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1365,22 +1340,22 @@
     </row>
     <row r="23" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -1388,7 +1363,7 @@
         <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -1396,15 +1371,15 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -1412,7 +1387,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1420,7 +1395,7 @@
         <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1428,7 +1403,7 @@
         <v>66</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1436,12 +1411,12 @@
         <v>66</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1467,17 +1442,17 @@
         <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1485,7 +1460,7 @@
         <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
